--- a/pred_ohlcv/54_21/2019-10-29 BTG ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-29 BTG ohlcv.xlsx
@@ -678,7 +678,7 @@
         <v>-546.1769</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-540.1769</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-583.6769</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-583.6769</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-857.0525</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-857.0525</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-867.5801</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-842.1701</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-822.0004</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-701.0004</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-678.171</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-673.1220000000001</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-733.4887</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-790.2492999999999</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-602.9945</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-985.2457576499999</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-908.9644576499999</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>419.4594335400001</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>419.4594335400001</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>419.4594335400001</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>452.5744335400001</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>429.5744335400001</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>380.0702335400001</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>1182.84733354</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>1493.50973354</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>1693.32458693</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>1135.75704032</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>2064.64694032</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>2302.037540320001</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>2758.12744032</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>3358.855940320001</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>3281.855940320001</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>3335.29694032</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>3290.076940320001</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>3166.715540320001</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>3169.161355180001</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>3740.67275518</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>3768.79275518</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>3768.79275518</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>4114.11645518</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>4114.11645518</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>4053.53875518</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>4053.53875518</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>4372.722455180001</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>4372.722455180001</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>4372.206255180001</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>4211.833755180001</v>
       </c>
       <c r="H211">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>4209.696555180001</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>4454.178155180001</v>
       </c>
       <c r="H215">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>4539.759155180001</v>
       </c>
       <c r="H217">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>4533.758655180001</v>
       </c>
       <c r="H218">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>4534.030055180001</v>
       </c>
       <c r="H219">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>4534.030055180001</v>
       </c>
       <c r="H220">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>4480.908455180001</v>
       </c>
       <c r="H221">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>4480.716555180001</v>
       </c>
       <c r="H222">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>4833.312655180001</v>
       </c>
       <c r="H223">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>4833.312655180001</v>
       </c>
       <c r="H224">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>4833.312655180001</v>
       </c>
       <c r="H225">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>4821.312655180001</v>
       </c>
       <c r="H226">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>4833.312655180001</v>
       </c>
       <c r="H227">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>5051.312655180001</v>
       </c>
       <c r="H228">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>5003.312655180001</v>
       </c>
       <c r="H229">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>4938.07605518</v>
       </c>
       <c r="H230">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>4981.64025518</v>
       </c>
       <c r="H231">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>4900.26555518</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>4719.26555518</v>
       </c>
       <c r="H233">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>5136.21565518</v>
       </c>
       <c r="H235">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>5117.91565518</v>
       </c>
       <c r="H236">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>5105.80475518</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>5155.661517420001</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>5155.661517420001</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>5032.226017420001</v>
       </c>
       <c r="H241">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>5024.181417420001</v>
       </c>
       <c r="H242">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>5021.781417420001</v>
       </c>
       <c r="H243">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>5033.051817420001</v>
       </c>
       <c r="H244">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>5033.051817420001</v>
       </c>
       <c r="H245">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>5013.051817420001</v>
       </c>
       <c r="H246">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>5015.051817420001</v>
       </c>
       <c r="H247">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>5019.981517420001</v>
       </c>
       <c r="H248">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>5026.959417420001</v>
       </c>
       <c r="H249">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>5026.858417420001</v>
       </c>
       <c r="H250">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>5029.913417420002</v>
       </c>
       <c r="H251">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>4762.953117420002</v>
       </c>
       <c r="H252">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>4588.780517420002</v>
       </c>
       <c r="H253">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-29 BTG ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-29 BTG ohlcv.xlsx
@@ -782,7 +782,7 @@
         <v>-857.0525</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-857.0525</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-857.0525</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-867.5801</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-842.1701</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-822.0004</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-701.0004</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-711.0004</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-678.171</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-733.4887</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-790.2492999999999</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-756.2492999999999</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-602.9945</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-985.2457576499999</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-908.9644576499999</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-1105.96445765</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-1091.83865765</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>419.4594335400001</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>419.4594335400001</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>419.4594335400001</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>452.5744335400001</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>429.5744335400001</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>380.0702335400001</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>1182.84733354</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>1493.50973354</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>1693.32458693</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>1135.75704032</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>2064.64694032</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>2302.037540320001</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>2758.12744032</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>3358.855940320001</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>3358.855940320001</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>3335.29694032</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>3290.076940320001</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>3170.381740320001</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>3166.715540320001</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>3169.161355180001</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>3169.161355180001</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>2996.55765518</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>4053.53875518</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>3898.932055180001</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>3898.932055180001</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>3903.84005518</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>3879.84005518</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>4287.925155180001</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>4388.039255180001</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>4372.722455180001</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>4372.722455180001</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>4372.206255180001</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>4378.206255180001</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>4378.206255180001</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>4282.206255180001</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>4135.434355180001</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>4117.434355180001</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>4218.060855180001</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>4211.833755180001</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>4209.696555180001</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>4372.755155180002</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>4454.178155180001</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>4539.759155180001</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>4534.030055180001</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>4534.030055180001</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>4480.908455180001</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>4480.716555180001</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>4833.312655180001</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>4833.312655180001</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>4833.312655180001</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>4821.312655180001</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>4833.312655180001</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>5051.312655180001</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>5003.312655180001</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>4938.07605518</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>4900.26555518</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>4719.26555518</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>5117.91565518</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>5105.80475518</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>5155.661517420001</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>5155.661517420001</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>5032.226017420001</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>5024.181417420001</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>5033.051817420001</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>5013.051817420001</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>5015.051817420001</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>5026.959417420001</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>5026.858417420001</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>4588.780517420002</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:8">
